--- a/resources/Expense Control 2015.xlsx
+++ b/resources/Expense Control 2015.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JJ\JJ-dev\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11508" yWindow="828" windowWidth="8040" windowHeight="7872" tabRatio="736" activeTab="15"/>
+    <workbookView xWindow="11508" yWindow="828" windowWidth="8040" windowHeight="7872" tabRatio="736"/>
   </bookViews>
   <sheets>
     <sheet name="Bonus" sheetId="24" r:id="rId1"/>
@@ -68,7 +73,7 @@
     <definedName name="PmtMode">'Dropdown List'!#REF!</definedName>
     <definedName name="RMBPurchase">'Dropdown List'!$C$2:$C$3</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -78,7 +83,7 @@
     <author>Sue Hwa</author>
   </authors>
   <commentList>
-    <comment ref="G59" authorId="0">
+    <comment ref="G59" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1382,7 +1387,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1390,7 +1395,7 @@
     <numFmt numFmtId="165" formatCode="[$-14809]d/m/yyyy;@"/>
     <numFmt numFmtId="166" formatCode="_ [$¥-804]* #,##0.00_ ;_ [$¥-804]* \-#,##0.00_ ;_ [$¥-804]* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1785,11 +1790,19 @@
       <color rgb="FFFFFFFF"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Salary"/>
@@ -1964,7 +1977,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1996,9 +2009,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2030,6 +2044,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2205,14 +2220,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="6" customWidth="1"/>
     <col min="2" max="2" width="15.109375" customWidth="1"/>
@@ -2221,17 +2236,17 @@
     <col min="5" max="5" width="10" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5546875" style="20" customWidth="1"/>
     <col min="7" max="8" width="12.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" style="19" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" style="18" customWidth="1"/>
     <col min="10" max="10" width="15.44140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="13" customFormat="1" ht="28.8">
+    <row r="2" spans="1:13" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>28</v>
       </c>
@@ -2256,7 +2271,7 @@
       <c r="H2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>41</v>
       </c>
       <c r="J2" s="25" t="s">
@@ -2266,7 +2281,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="15" customFormat="1">
+    <row r="3" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14">
         <v>42036</v>
       </c>
@@ -2292,7 +2307,7 @@
         <f>1050-G3</f>
         <v>480</v>
       </c>
-      <c r="I3" s="19">
+      <c r="I3" s="18">
         <f>+F3-G3</f>
         <v>2430</v>
       </c>
@@ -2303,7 +2318,7 @@
         <v>460747</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="15" customFormat="1">
+    <row r="4" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
         <v>42036</v>
       </c>
@@ -2328,7 +2343,7 @@
       <c r="H4" s="18">
         <v>0</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="18">
         <f t="shared" ref="I4:I5" si="0">+F4-G4</f>
         <v>1000</v>
       </c>
@@ -2337,7 +2352,7 @@
       </c>
       <c r="L4"/>
     </row>
-    <row r="5" spans="1:12" s="15" customFormat="1">
+    <row r="5" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>42036</v>
       </c>
@@ -2363,7 +2378,7 @@
         <f>250-G5</f>
         <v>120</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="18">
         <f t="shared" si="0"/>
         <v>870</v>
       </c>
@@ -2373,20 +2388,21 @@
       <c r="K5" s="62">
         <v>460750</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" s="18"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>363</v>
       </c>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="1:12" s="13" customFormat="1" ht="28.8">
+    <row r="9" spans="1:13" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
@@ -2411,7 +2427,7 @@
       <c r="H9" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="11" t="s">
         <v>41</v>
       </c>
       <c r="J9" s="25" t="s">
@@ -2421,7 +2437,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="15" customFormat="1">
+    <row r="10" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="15" t="s">
         <v>43</v>
@@ -2447,7 +2463,7 @@
         <f>0.17*F10</f>
         <v>2210</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="18">
         <f>+F10-G10</f>
         <v>10400</v>
       </c>
@@ -2456,7 +2472,7 @@
       </c>
       <c r="K10" s="62"/>
     </row>
-    <row r="11" spans="1:12" s="15" customFormat="1">
+    <row r="11" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="15" t="s">
         <v>49</v>
@@ -2482,7 +2498,7 @@
         <f>0.13*F11</f>
         <v>468</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="18">
         <f t="shared" ref="I11:I12" si="1">+F11-G11</f>
         <v>3132</v>
       </c>
@@ -2491,7 +2507,7 @@
       </c>
       <c r="K11" s="62"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="45">
         <v>42401</v>
       </c>
@@ -2516,7 +2532,7 @@
       <c r="H12" s="20">
         <v>0</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="18">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
@@ -2536,19 +2552,19 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K77"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A46" sqref="A46:XFD47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.88671875" style="35" customWidth="1"/>
@@ -2561,7 +2577,7 @@
     <col min="11" max="11" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -2596,7 +2612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>42191</v>
       </c>
@@ -2619,7 +2635,7 @@
         <v>42191</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>42192</v>
       </c>
@@ -2642,7 +2658,7 @@
         <v>42192</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>42212</v>
       </c>
@@ -2665,7 +2681,7 @@
         <v>42212</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>42215</v>
       </c>
@@ -2689,7 +2705,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>42188</v>
       </c>
@@ -2718,7 +2734,7 @@
         <v>42251</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>42205</v>
       </c>
@@ -2747,7 +2763,7 @@
         <v>42251</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="67">
         <v>42208</v>
       </c>
@@ -2770,7 +2786,7 @@
         <v>42208</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="67">
         <v>42213</v>
       </c>
@@ -2793,7 +2809,7 @@
         <v>42213</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="67">
         <v>42213</v>
       </c>
@@ -2816,7 +2832,7 @@
         <v>42213</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="66">
         <v>42203</v>
       </c>
@@ -2839,7 +2855,7 @@
         <v>42203</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>42186</v>
       </c>
@@ -2862,7 +2878,7 @@
         <v>42186</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>42186</v>
       </c>
@@ -2885,7 +2901,7 @@
         <v>42186</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>42188</v>
       </c>
@@ -2908,7 +2924,7 @@
         <v>42188</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>42191</v>
       </c>
@@ -2931,7 +2947,7 @@
         <v>42191</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>42205</v>
       </c>
@@ -2954,7 +2970,7 @@
         <v>42205</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>42208</v>
       </c>
@@ -2977,7 +2993,7 @@
         <v>42208</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>42213</v>
       </c>
@@ -3000,7 +3016,7 @@
         <v>42213</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>42186</v>
       </c>
@@ -3023,7 +3039,7 @@
         <v>42186</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>42205</v>
       </c>
@@ -3046,7 +3062,7 @@
         <v>42205</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>42186</v>
       </c>
@@ -3075,7 +3091,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>42186</v>
       </c>
@@ -3104,7 +3120,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>42191</v>
       </c>
@@ -3127,7 +3143,7 @@
         <v>42191</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>42201</v>
       </c>
@@ -3151,7 +3167,7 @@
       </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>42198</v>
       </c>
@@ -3174,7 +3190,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>42205</v>
       </c>
@@ -3195,7 +3211,7 @@
         <v>42205</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>42214</v>
       </c>
@@ -3216,7 +3232,7 @@
         <v>42214</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>42209</v>
       </c>
@@ -3237,7 +3253,7 @@
         <v>42209</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>42209</v>
       </c>
@@ -3260,7 +3276,7 @@
         <v>42209</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>42207</v>
       </c>
@@ -3283,7 +3299,7 @@
         <v>42207</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>42205</v>
       </c>
@@ -3303,7 +3319,7 @@
         <v>42205</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>42211</v>
       </c>
@@ -3335,7 +3351,7 @@
         <v>42220</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>42209</v>
       </c>
@@ -3358,7 +3374,7 @@
         <v>42209</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>42192</v>
       </c>
@@ -3390,7 +3406,7 @@
         <v>42216</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>42212</v>
       </c>
@@ -3422,7 +3438,7 @@
         <v>42216</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>42212</v>
       </c>
@@ -3454,7 +3470,7 @@
         <v>42216</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>42211</v>
       </c>
@@ -3486,7 +3502,7 @@
         <v>42191</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>42186</v>
       </c>
@@ -3507,7 +3523,7 @@
       </c>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:10" ht="16.2">
+    <row r="39" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>42208</v>
       </c>
@@ -3536,7 +3552,7 @@
         <v>42209</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="14.25" customHeight="1">
+    <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>42203</v>
       </c>
@@ -3559,7 +3575,7 @@
         <v>42203</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="12.75" customHeight="1">
+    <row r="41" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="13" t="s">
         <v>23</v>
@@ -3575,7 +3591,7 @@
       </c>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="1:10" ht="14.25" customHeight="1">
+    <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="13" t="s">
         <v>23</v>
@@ -3591,7 +3607,7 @@
       </c>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="1:10" ht="14.25" customHeight="1">
+    <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="13" t="s">
         <v>23</v>
@@ -3607,7 +3623,7 @@
       </c>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="13" t="s">
         <v>22</v>
@@ -3621,7 +3637,7 @@
       </c>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="35" t="s">
         <v>18</v>
@@ -3635,133 +3651,133 @@
       </c>
       <c r="H45" s="4"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="E48" s="7"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="E49" s="7"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="E50" s="7"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="E51" s="7"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="E52" s="7"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="E53" s="7"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E54" s="7"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="E55" s="7"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="E56" s="7"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="E57" s="7"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="E58" s="7"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="13"/>
       <c r="E59" s="7"/>
       <c r="H59" s="4"/>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="13"/>
       <c r="E60" s="7"/>
       <c r="H60" s="4"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="13"/>
       <c r="E61" s="7"/>
       <c r="H61" s="4"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="B62" s="13"/>
       <c r="E62" s="7"/>
       <c r="H62" s="4"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="D63" s="8"/>
       <c r="E63" s="7"/>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="13"/>
       <c r="E64" s="7"/>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="E65" s="7"/>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="E66" s="7"/>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="E67" s="7"/>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
       <c r="E68" s="7"/>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
       <c r="E69" s="7"/>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
       <c r="E70" s="7"/>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="E71" s="7"/>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E72" s="7"/>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="E73" s="7"/>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
       <c r="E74" s="7"/>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="4"/>
       <c r="E75" s="7"/>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="4"/>
       <c r="E76" s="7"/>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="4"/>
       <c r="E77" s="7"/>
     </row>
@@ -3780,14 +3796,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.109375" style="35" customWidth="1"/>
@@ -3800,7 +3816,7 @@
     <col min="11" max="11" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -3835,7 +3851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>42222</v>
       </c>
@@ -3858,7 +3874,7 @@
         <v>42222</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>42222</v>
       </c>
@@ -3881,7 +3897,7 @@
         <v>42222</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>42231</v>
       </c>
@@ -3904,7 +3920,7 @@
         <v>42231</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>42231</v>
       </c>
@@ -3928,7 +3944,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>42234</v>
       </c>
@@ -3952,7 +3968,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>42241</v>
       </c>
@@ -3976,7 +3992,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>42241</v>
       </c>
@@ -3999,7 +4015,7 @@
         <v>42241</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>42222</v>
       </c>
@@ -4022,7 +4038,7 @@
         <v>42222</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>42227</v>
       </c>
@@ -4045,7 +4061,7 @@
         <v>42227</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>42243</v>
       </c>
@@ -4068,7 +4084,7 @@
         <v>42243</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>42228</v>
       </c>
@@ -4097,7 +4113,7 @@
         <v>42324</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>42227</v>
       </c>
@@ -4120,7 +4136,7 @@
         <v>42227</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>42228</v>
       </c>
@@ -4143,7 +4159,7 @@
         <v>42228</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>42227</v>
       </c>
@@ -4166,7 +4182,7 @@
         <v>42227</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>42222</v>
       </c>
@@ -4189,7 +4205,7 @@
         <v>42222</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>42237</v>
       </c>
@@ -4212,7 +4228,7 @@
         <v>42237</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>42219</v>
       </c>
@@ -4235,7 +4251,7 @@
         <v>42219</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>42220</v>
       </c>
@@ -4258,7 +4274,7 @@
         <v>42220</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>42220</v>
       </c>
@@ -4281,7 +4297,7 @@
         <v>42220</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>42220</v>
       </c>
@@ -4304,7 +4320,7 @@
         <v>42220</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>42228</v>
       </c>
@@ -4327,7 +4343,7 @@
         <v>42228</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>42228</v>
       </c>
@@ -4350,7 +4366,7 @@
         <v>42228</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>42233</v>
       </c>
@@ -4373,7 +4389,7 @@
         <v>42233</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>42230</v>
       </c>
@@ -4396,7 +4412,7 @@
         <v>42230</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>42241</v>
       </c>
@@ -4420,7 +4436,7 @@
       </c>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>42241</v>
       </c>
@@ -4443,7 +4459,7 @@
         <v>42241</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>42228</v>
       </c>
@@ -4464,7 +4480,7 @@
         <v>42228</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>42244</v>
       </c>
@@ -4485,7 +4501,7 @@
       </c>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>42227</v>
       </c>
@@ -4514,7 +4530,7 @@
         <v>42250</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>42242</v>
       </c>
@@ -4540,7 +4556,7 @@
         <v>42242</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>42242</v>
       </c>
@@ -4566,7 +4582,7 @@
         <v>42242</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>42089</v>
       </c>
@@ -4592,7 +4608,7 @@
         <v>42089</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>42242</v>
       </c>
@@ -4615,7 +4631,7 @@
         <v>42242</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>42225</v>
       </c>
@@ -4638,7 +4654,7 @@
         <v>42225</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>42247</v>
       </c>
@@ -4661,7 +4677,7 @@
         <v>42247</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>42243</v>
       </c>
@@ -4693,7 +4709,7 @@
         <v>42338</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>42213</v>
       </c>
@@ -4725,7 +4741,7 @@
         <v>42219</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="13" t="s">
         <v>19</v>
@@ -4742,7 +4758,7 @@
       </c>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>42217</v>
       </c>
@@ -4763,7 +4779,7 @@
       </c>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="1:10" ht="18" customHeight="1">
+    <row r="41" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>42243</v>
       </c>
@@ -4792,7 +4808,7 @@
         <v>42243</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="20.25" customHeight="1">
+    <row r="42" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>42234</v>
       </c>
@@ -4813,7 +4829,7 @@
       </c>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="1:10" ht="18" customHeight="1">
+    <row r="43" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>42240</v>
       </c>
@@ -4834,7 +4850,7 @@
       </c>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="1:10" ht="18.75" customHeight="1">
+    <row r="44" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>42237</v>
       </c>
@@ -4855,7 +4871,7 @@
       </c>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="1:10" ht="18.75" customHeight="1">
+    <row r="45" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>42235</v>
       </c>
@@ -4876,7 +4892,7 @@
       </c>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="1:10" ht="17.25" customHeight="1">
+    <row r="46" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="13" t="s">
         <v>23</v>
@@ -4892,7 +4908,7 @@
       </c>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="1:10" ht="15.75" customHeight="1">
+    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="13" t="s">
         <v>23</v>
@@ -4908,7 +4924,7 @@
       </c>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="1:10" ht="17.25" customHeight="1">
+    <row r="48" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="13" t="s">
         <v>23</v>
@@ -4923,7 +4939,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="13" t="s">
         <v>22</v>
@@ -4942,7 +4958,7 @@
       </c>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="35" t="s">
         <v>18</v>
@@ -4958,66 +4974,66 @@
       </c>
       <c r="H50" s="4"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="E52" s="7"/>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="13"/>
       <c r="E53" s="7"/>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="E54" s="7"/>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="E55" s="7"/>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="E56" s="7"/>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E57" s="7"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="E58" s="7"/>
       <c r="H58" s="4"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="E59" s="7"/>
       <c r="H59" s="4"/>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="E60" s="7"/>
       <c r="H60" s="4"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="E61" s="7"/>
       <c r="H61" s="4"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="E62" s="7"/>
       <c r="H62" s="4"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="E63" s="7"/>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E64" s="7"/>
       <c r="H64" s="4"/>
     </row>
@@ -5036,14 +5052,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A101" sqref="A101:XFD101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.5546875" style="35" customWidth="1"/>
@@ -5056,7 +5072,7 @@
     <col min="11" max="11" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -5091,7 +5107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>42265</v>
       </c>
@@ -5114,7 +5130,7 @@
         <v>42265</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>42261</v>
       </c>
@@ -5143,7 +5159,7 @@
         <v>42324</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>42259</v>
       </c>
@@ -5167,7 +5183,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>42266</v>
       </c>
@@ -5190,7 +5206,7 @@
         <v>42266</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>42263</v>
       </c>
@@ -5214,7 +5230,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>42252</v>
       </c>
@@ -5237,7 +5253,7 @@
         <v>42252</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>42251</v>
       </c>
@@ -5258,7 +5274,7 @@
         <v>42251</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>42270</v>
       </c>
@@ -5281,7 +5297,7 @@
         <v>42270</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="13" t="s">
         <v>94</v>
@@ -5299,7 +5315,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="13" t="s">
         <v>94</v>
@@ -5316,7 +5332,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="13" t="s">
         <v>94</v>
@@ -5333,7 +5349,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="13" t="s">
         <v>94</v>
@@ -5350,7 +5366,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>42275</v>
       </c>
@@ -5382,7 +5398,7 @@
         <v>42338</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>42244</v>
       </c>
@@ -5414,7 +5430,7 @@
         <v>42262</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>42261</v>
       </c>
@@ -5437,7 +5453,7 @@
         <v>42261</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>42248</v>
       </c>
@@ -5458,7 +5474,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>42266</v>
       </c>
@@ -5481,7 +5497,7 @@
         <v>42273</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>42273</v>
       </c>
@@ -5502,7 +5518,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:10" ht="18" customHeight="1">
+    <row r="20" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>42265</v>
       </c>
@@ -5525,7 +5541,7 @@
         <v>42265</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="18" customHeight="1">
+    <row r="21" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>42264</v>
       </c>
@@ -5548,7 +5564,7 @@
         <v>42264</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="18" customHeight="1">
+    <row r="22" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>42264</v>
       </c>
@@ -5571,7 +5587,7 @@
         <v>42264</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="17.25" customHeight="1">
+    <row r="23" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>42273</v>
       </c>
@@ -5594,7 +5610,7 @@
         <v>42273</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1">
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>42276</v>
       </c>
@@ -5617,7 +5633,7 @@
         <v>42276</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="14.25" customHeight="1">
+    <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="13" t="s">
         <v>23</v>
@@ -5632,7 +5648,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1">
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="13" t="s">
         <v>23</v>
@@ -5648,7 +5664,7 @@
       </c>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1">
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="13" t="s">
         <v>23</v>
@@ -5664,7 +5680,7 @@
       </c>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>42271</v>
       </c>
@@ -5693,7 +5709,7 @@
         <v>42269</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>42268</v>
       </c>
@@ -5722,7 +5738,7 @@
         <v>42276</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>42270</v>
       </c>
@@ -5752,7 +5768,7 @@
         <v>42272</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>42228</v>
       </c>
@@ -5762,55 +5778,55 @@
       <c r="E31" s="7"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="E32" s="7"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="E33" s="7"/>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="E34" s="7"/>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E35" s="7"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="E36" s="7"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="E37" s="7"/>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="E38" s="7"/>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="E39" s="7"/>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="E40" s="7"/>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="E41" s="7"/>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E42" s="7"/>
       <c r="H42" s="4"/>
     </row>
@@ -5829,14 +5845,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="35" customWidth="1"/>
@@ -5849,7 +5865,7 @@
     <col min="11" max="11" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -5884,7 +5900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>42284</v>
       </c>
@@ -5907,7 +5923,7 @@
         <v>42284</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>42300</v>
       </c>
@@ -5930,7 +5946,7 @@
         <v>42300</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>42282</v>
       </c>
@@ -5953,7 +5969,7 @@
         <v>42282</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>42282</v>
       </c>
@@ -5977,7 +5993,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>42293</v>
       </c>
@@ -6001,7 +6017,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>42289</v>
       </c>
@@ -6027,7 +6043,7 @@
         <v>460851</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>42291</v>
       </c>
@@ -6050,7 +6066,7 @@
         <v>42291</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>42291</v>
       </c>
@@ -6073,7 +6089,7 @@
         <v>42291</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>42301</v>
       </c>
@@ -6096,7 +6112,7 @@
         <v>42301</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>42307</v>
       </c>
@@ -6119,7 +6135,7 @@
         <v>42307</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>42306</v>
       </c>
@@ -6148,7 +6164,7 @@
         <v>42307</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>42289</v>
       </c>
@@ -6177,7 +6193,7 @@
         <v>42307</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>42307</v>
       </c>
@@ -6200,7 +6216,7 @@
         <v>42307</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>42299</v>
       </c>
@@ -6223,7 +6239,7 @@
         <v>42299</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>42278</v>
       </c>
@@ -6246,7 +6262,7 @@
         <v>42278</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>314</v>
       </c>
@@ -6270,7 +6286,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>42301</v>
       </c>
@@ -6291,7 +6307,7 @@
         <v>42301</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>42307</v>
       </c>
@@ -6315,7 +6331,7 @@
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>42279</v>
       </c>
@@ -6335,7 +6351,7 @@
         <v>42279</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>42293</v>
       </c>
@@ -6364,7 +6380,7 @@
         <v>42335</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>42293</v>
       </c>
@@ -6390,7 +6406,7 @@
         <v>42335</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>42284</v>
       </c>
@@ -6413,7 +6429,7 @@
         <v>42284</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>42279</v>
       </c>
@@ -6436,7 +6452,7 @@
         <v>42279</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="13" t="s">
         <v>94</v>
@@ -6452,7 +6468,7 @@
       </c>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>42287</v>
       </c>
@@ -6475,7 +6491,7 @@
         <v>42287</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="13" t="s">
         <v>94</v>
@@ -6492,7 +6508,7 @@
       </c>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>42305</v>
       </c>
@@ -6524,7 +6540,7 @@
         <v>42338</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>42305</v>
       </c>
@@ -6554,7 +6570,7 @@
         <v>42282</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>42305</v>
       </c>
@@ -6574,7 +6590,7 @@
         <v>42305</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>42278</v>
       </c>
@@ -6595,7 +6611,7 @@
       </c>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>42278</v>
       </c>
@@ -6616,7 +6632,7 @@
       </c>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>42304</v>
       </c>
@@ -6637,7 +6653,7 @@
       </c>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8" ht="18.75" customHeight="1">
+    <row r="34" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>42295</v>
       </c>
@@ -6660,7 +6676,7 @@
         <v>42295</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1">
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>42279</v>
       </c>
@@ -6681,7 +6697,7 @@
       </c>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:8" ht="17.25" customHeight="1">
+    <row r="36" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="13" t="s">
         <v>23</v>
@@ -6698,7 +6714,7 @@
       </c>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:8" ht="18" customHeight="1">
+    <row r="37" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="13" t="s">
         <v>23</v>
@@ -6714,7 +6730,7 @@
       </c>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="1:8" ht="16.5" customHeight="1">
+    <row r="38" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="13" t="s">
         <v>23</v>
@@ -6730,7 +6746,7 @@
       </c>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:8" ht="14.25" customHeight="1">
+    <row r="39" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="13" t="s">
         <v>23</v>
@@ -6745,7 +6761,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>42076</v>
       </c>
@@ -6764,7 +6780,7 @@
       </c>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>42086</v>
       </c>
@@ -6780,72 +6796,72 @@
       </c>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="13"/>
       <c r="E42" s="7"/>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="E43" s="7"/>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="13"/>
       <c r="E44" s="7"/>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="E45" s="7"/>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="E46" s="7"/>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="E47" s="7"/>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E48" s="7"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="E49" s="7"/>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="E50" s="7"/>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="E51" s="7"/>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="E52" s="7"/>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="E53" s="7"/>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="E54" s="7"/>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E55" s="7"/>
       <c r="H55" s="4"/>
     </row>
@@ -6864,14 +6880,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" style="13" customWidth="1"/>
@@ -6885,7 +6901,7 @@
     <col min="11" max="11" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -6920,7 +6936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>42321</v>
       </c>
@@ -6943,7 +6959,7 @@
         <v>42321</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>42321</v>
       </c>
@@ -6966,7 +6982,7 @@
         <v>42321</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>42326</v>
       </c>
@@ -6989,7 +7005,7 @@
         <v>42326</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>42321</v>
       </c>
@@ -7015,7 +7031,7 @@
         <v>460851</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>42324</v>
       </c>
@@ -7041,7 +7057,7 @@
         <v>460851</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>42321</v>
       </c>
@@ -7064,7 +7080,7 @@
         <v>42321</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>42324</v>
       </c>
@@ -7087,7 +7103,7 @@
         <v>42324</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>42333</v>
       </c>
@@ -7110,7 +7126,7 @@
         <v>42333</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>42319</v>
       </c>
@@ -7139,7 +7155,7 @@
         <v>42324</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>42325</v>
       </c>
@@ -7163,7 +7179,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>42331</v>
       </c>
@@ -7187,7 +7203,7 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>42325</v>
       </c>
@@ -7211,7 +7227,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>42321</v>
       </c>
@@ -7234,7 +7250,7 @@
         <v>42321</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>42333</v>
       </c>
@@ -7255,7 +7271,7 @@
         <v>42333</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>42312</v>
       </c>
@@ -7278,7 +7294,7 @@
         <v>42312</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>42321</v>
       </c>
@@ -7299,7 +7315,7 @@
         <v>42321</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>42334</v>
       </c>
@@ -7320,7 +7336,7 @@
         <v>42334</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>42317</v>
       </c>
@@ -7343,7 +7359,7 @@
         <v>42317</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>42310</v>
       </c>
@@ -7363,7 +7379,7 @@
         <v>42310</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>42323</v>
       </c>
@@ -7386,7 +7402,7 @@
         <v>42323</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>42318</v>
       </c>
@@ -7409,7 +7425,7 @@
         <v>42318</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>42319</v>
       </c>
@@ -7427,7 +7443,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>42303</v>
       </c>
@@ -7459,7 +7475,7 @@
         <v>42319</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>42335</v>
       </c>
@@ -7488,7 +7504,7 @@
         <v>460855</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>42309</v>
       </c>
@@ -7509,7 +7525,7 @@
       </c>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>42326</v>
       </c>
@@ -7532,7 +7548,7 @@
         <v>42326</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>42322</v>
       </c>
@@ -7555,7 +7571,7 @@
         <v>42330</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="13" t="s">
         <v>23</v>
@@ -7576,7 +7592,7 @@
         <v>42330</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="13" t="s">
         <v>23</v>
@@ -7593,7 +7609,7 @@
       </c>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>42326</v>
       </c>
@@ -7616,7 +7632,7 @@
         <v>42326</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>42324</v>
       </c>
@@ -7639,7 +7655,7 @@
         <v>42324</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="13" t="s">
         <v>23</v>
@@ -7656,7 +7672,7 @@
       <c r="G33" s="7"/>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="13" t="s">
         <v>23</v>
@@ -7673,7 +7689,7 @@
       <c r="G34" s="7"/>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="13" t="s">
         <v>23</v>
@@ -7689,7 +7705,7 @@
       </c>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>42335</v>
       </c>
@@ -7721,7 +7737,7 @@
         <v>42339</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>42326</v>
       </c>
@@ -7745,7 +7761,7 @@
       </c>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>42326</v>
       </c>
@@ -7769,102 +7785,102 @@
       </c>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="E39" s="7"/>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="E40" s="7"/>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="E42" s="7"/>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E43" s="7"/>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="E44" s="7"/>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="E45" s="7"/>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="E46" s="7"/>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="35"/>
       <c r="B47" s="6"/>
       <c r="C47"/>
       <c r="D47" s="7"/>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="35"/>
       <c r="B48" s="6"/>
       <c r="C48"/>
       <c r="D48" s="7"/>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="35"/>
       <c r="B49" s="6"/>
       <c r="C49"/>
       <c r="D49" s="7"/>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="35"/>
       <c r="B50" s="6"/>
       <c r="C50"/>
       <c r="D50" s="7"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="E51" s="7"/>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="E52" s="7"/>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="E53" s="7"/>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="E54" s="7"/>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="E55" s="7"/>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="E56" s="7"/>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E57" s="7"/>
       <c r="H57" s="4"/>
     </row>
@@ -7883,14 +7899,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.88671875" style="35" customWidth="1"/>
@@ -7904,7 +7920,7 @@
     <col min="11" max="11" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -7939,7 +7955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>42340</v>
       </c>
@@ -7962,7 +7978,7 @@
         <v>42340</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>42340</v>
       </c>
@@ -7985,7 +8001,7 @@
         <v>42340</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>42347</v>
       </c>
@@ -8008,7 +8024,7 @@
         <v>42347</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>42350</v>
       </c>
@@ -8032,7 +8048,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>42356</v>
       </c>
@@ -8056,7 +8072,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>42354</v>
       </c>
@@ -8085,7 +8101,7 @@
         <v>42361</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>42360</v>
       </c>
@@ -8108,7 +8124,7 @@
         <v>42360</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>42341</v>
       </c>
@@ -8137,7 +8153,7 @@
         <v>42346</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>42347</v>
       </c>
@@ -8160,7 +8176,7 @@
         <v>42347</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>42359</v>
       </c>
@@ -8183,7 +8199,7 @@
         <v>42359</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>42366</v>
       </c>
@@ -8206,7 +8222,7 @@
         <v>42366</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>42346</v>
       </c>
@@ -8229,7 +8245,7 @@
         <v>42346</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>42367</v>
       </c>
@@ -8253,7 +8269,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>42339</v>
       </c>
@@ -8274,7 +8290,7 @@
         <v>42339</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>42361</v>
       </c>
@@ -8298,7 +8314,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>42361</v>
       </c>
@@ -8321,7 +8337,7 @@
         <v>42361</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>42356</v>
       </c>
@@ -8353,7 +8369,7 @@
         <v>42359</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>42339</v>
       </c>
@@ -8372,7 +8388,7 @@
       <c r="G19"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="13" t="s">
         <v>94</v>
@@ -8391,7 +8407,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>42366</v>
       </c>
@@ -8420,7 +8436,7 @@
         <v>460855</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>42334</v>
       </c>
@@ -8452,7 +8468,7 @@
         <v>42359</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>42339</v>
       </c>
@@ -8473,7 +8489,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:10" ht="17.25" customHeight="1">
+    <row r="24" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>42356</v>
       </c>
@@ -8496,7 +8512,7 @@
         <v>42356</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15" customHeight="1">
+    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>42346</v>
       </c>
@@ -8517,7 +8533,7 @@
       </c>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:10" ht="15" customHeight="1">
+    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>42340</v>
       </c>
@@ -8538,7 +8554,7 @@
       </c>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:10" ht="15" customHeight="1">
+    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>42348</v>
       </c>
@@ -8559,7 +8575,7 @@
       </c>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:10" ht="15" customHeight="1">
+    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>42362</v>
       </c>
@@ -8582,7 +8598,7 @@
         <v>42364</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="13.5" customHeight="1">
+    <row r="29" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="13" t="s">
         <v>23</v>
@@ -8599,7 +8615,7 @@
       <c r="G29"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:10" ht="16.5" customHeight="1">
+    <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="13" t="s">
         <v>23</v>
@@ -8615,7 +8631,7 @@
       </c>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1">
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="13" t="s">
         <v>23</v>
@@ -8630,7 +8646,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>42076</v>
       </c>
@@ -8649,7 +8665,7 @@
       </c>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>42086</v>
       </c>
@@ -8665,7 +8681,7 @@
       </c>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>42369</v>
       </c>
@@ -8694,65 +8710,65 @@
         <v>42367</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="E35" s="7"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="E36" s="7"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="E37" s="7"/>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="E38" s="7"/>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="E39" s="7"/>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E40" s="7"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="E41" s="7"/>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="E42" s="7"/>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="E43" s="7"/>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="E44" s="7"/>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="E45" s="7"/>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="E46" s="7"/>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E47" s="7"/>
       <c r="H47" s="4"/>
     </row>
@@ -8771,15 +8787,15 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.109375" customWidth="1"/>
     <col min="2" max="2" width="15.109375" style="1" customWidth="1"/>
@@ -8805,7 +8821,7 @@
     <col min="28" max="28" width="12.5546875" style="57" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="73" customFormat="1">
+    <row r="1" spans="1:28" s="73" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="71"/>
       <c r="B1" s="72"/>
       <c r="C1" s="72"/>
@@ -8816,10 +8832,10 @@
       <c r="AA1" s="74"/>
       <c r="AB1" s="74"/>
     </row>
-    <row r="2" spans="1:28" outlineLevel="1">
+    <row r="2" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A2" s="37"/>
     </row>
-    <row r="3" spans="1:28" s="35" customFormat="1" ht="57.6" outlineLevel="1">
+    <row r="3" spans="1:28" s="35" customFormat="1" ht="57.6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A3" s="88" t="s">
         <v>357</v>
       </c>
@@ -8900,7 +8916,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="15" customFormat="1" outlineLevel="1">
+    <row r="4" spans="1:28" s="15" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A4" s="42" t="s">
         <v>120</v>
       </c>
@@ -9006,7 +9022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="15" customFormat="1" outlineLevel="1">
+    <row r="5" spans="1:28" s="15" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A5" s="42" t="s">
         <v>119</v>
       </c>
@@ -9112,7 +9128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" outlineLevel="1">
+    <row r="6" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
         <v>109</v>
       </c>
@@ -9218,7 +9234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" outlineLevel="1">
+    <row r="7" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A7" s="41" t="s">
         <v>110</v>
       </c>
@@ -9324,7 +9340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" outlineLevel="1">
+    <row r="8" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A8" s="41" t="s">
         <v>111</v>
       </c>
@@ -9430,7 +9446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" outlineLevel="1">
+    <row r="9" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
         <v>112</v>
       </c>
@@ -9536,7 +9552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" outlineLevel="1">
+    <row r="10" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A10" s="41" t="s">
         <v>113</v>
       </c>
@@ -9642,7 +9658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" outlineLevel="1">
+    <row r="11" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A11" s="41" t="s">
         <v>114</v>
       </c>
@@ -9748,7 +9764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" outlineLevel="1">
+    <row r="12" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A12" s="41" t="s">
         <v>115</v>
       </c>
@@ -9854,7 +9870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" outlineLevel="1">
+    <row r="13" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A13" s="41" t="s">
         <v>116</v>
       </c>
@@ -9960,7 +9976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" outlineLevel="1">
+    <row r="14" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A14" s="41" t="s">
         <v>117</v>
       </c>
@@ -10066,7 +10082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" outlineLevel="1">
+    <row r="15" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A15" s="41" t="s">
         <v>118</v>
       </c>
@@ -10172,7 +10188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" outlineLevel="1">
+    <row r="16" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -10188,7 +10204,7 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" spans="1:28" ht="15" outlineLevel="1" thickBot="1">
+    <row r="17" spans="1:28" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="39">
         <f ca="1">SUM(B4:B16)</f>
         <v>0</v>
@@ -10276,7 +10292,7 @@
       </c>
       <c r="Z17" s="60"/>
     </row>
-    <row r="18" spans="1:28" ht="15" outlineLevel="1" thickTop="1">
+    <row r="18" spans="1:28" ht="15" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -10292,7 +10308,7 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
     </row>
-    <row r="19" spans="1:28" outlineLevel="1">
+    <row r="19" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>108</v>
       </c>
@@ -10351,7 +10367,7 @@
       <c r="Z19" s="38"/>
       <c r="AA19" s="70"/>
     </row>
-    <row r="20" spans="1:28" outlineLevel="1">
+    <row r="20" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="K20" s="86"/>
       <c r="L20" s="86"/>
       <c r="M20" s="86"/>
@@ -10368,7 +10384,7 @@
       <c r="X20" s="86"/>
       <c r="AA20" s="70"/>
     </row>
-    <row r="21" spans="1:28" ht="15" outlineLevel="1" thickBot="1">
+    <row r="21" spans="1:28" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="39">
         <f ca="1">SUM(B17:B20)</f>
         <v>0</v>
@@ -10454,15 +10470,15 @@
       <c r="Z21" s="60"/>
       <c r="AA21" s="70"/>
     </row>
-    <row r="22" spans="1:28" ht="15" outlineLevel="1" thickTop="1">
+    <row r="22" spans="1:28" ht="15" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="K22" s="91" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="AA23" s="70"/>
     </row>
-    <row r="24" spans="1:28" s="79" customFormat="1">
+    <row r="24" spans="1:28" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="77" t="s">
         <v>121</v>
       </c>
@@ -10473,7 +10489,7 @@
       <c r="F24" s="78"/>
       <c r="G24" s="78"/>
     </row>
-    <row r="25" spans="1:28" ht="28.8" outlineLevel="1">
+    <row r="25" spans="1:28" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B25" s="11" t="s">
         <v>33</v>
       </c>
@@ -10510,8 +10526,8 @@
       </c>
       <c r="AA25" s="70"/>
     </row>
-    <row r="26" spans="1:28" outlineLevel="1"/>
-    <row r="27" spans="1:28" outlineLevel="1">
+    <row r="26" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>121</v>
       </c>
@@ -10560,7 +10576,7 @@
         <v>128276.39000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="28.8" outlineLevel="1">
+    <row r="28" spans="1:28" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A28" s="92" t="s">
         <v>365</v>
       </c>
@@ -10603,7 +10619,7 @@
         <v>16710</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="15" outlineLevel="1" thickBot="1">
+    <row r="29" spans="1:28" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -10653,19 +10669,19 @@
         <v>144986.39000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="15" outlineLevel="1" thickTop="1">
+    <row r="30" spans="1:28" ht="15" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="H30" s="89">
         <f>SUM(B27:E27)-F27-H27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="H31" s="93">
         <f>SUM(B28:E28)-F28-H28</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:28" s="82" customFormat="1" ht="43.2">
+    <row r="32" spans="1:28" s="82" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="80" t="s">
         <v>349</v>
       </c>
@@ -10682,7 +10698,7 @@
       <c r="AA32" s="83"/>
       <c r="AB32" s="83"/>
     </row>
-    <row r="33" spans="1:3" outlineLevel="1">
+    <row r="33" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A33" s="40" t="str">
         <f>A4</f>
         <v xml:space="preserve">Jan </v>
@@ -10693,7 +10709,7 @@
       </c>
       <c r="C33" s="90"/>
     </row>
-    <row r="34" spans="1:3" outlineLevel="1">
+    <row r="34" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A34" s="40" t="str">
         <f t="shared" ref="A34:A44" si="9">A5</f>
         <v>Feb</v>
@@ -10704,7 +10720,7 @@
       </c>
       <c r="C34" s="90"/>
     </row>
-    <row r="35" spans="1:3" outlineLevel="1">
+    <row r="35" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A35" s="40" t="str">
         <f t="shared" si="9"/>
         <v>Mar</v>
@@ -10715,7 +10731,7 @@
       </c>
       <c r="C35" s="90"/>
     </row>
-    <row r="36" spans="1:3" outlineLevel="1">
+    <row r="36" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A36" s="40" t="str">
         <f t="shared" si="9"/>
         <v>Apr</v>
@@ -10726,7 +10742,7 @@
       </c>
       <c r="C36" s="90"/>
     </row>
-    <row r="37" spans="1:3" outlineLevel="1">
+    <row r="37" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A37" s="40" t="str">
         <f t="shared" si="9"/>
         <v>May</v>
@@ -10737,7 +10753,7 @@
       </c>
       <c r="C37" s="90"/>
     </row>
-    <row r="38" spans="1:3" outlineLevel="1">
+    <row r="38" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A38" s="40" t="str">
         <f t="shared" si="9"/>
         <v>Jun</v>
@@ -10748,7 +10764,7 @@
       </c>
       <c r="C38" s="90"/>
     </row>
-    <row r="39" spans="1:3" outlineLevel="1">
+    <row r="39" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A39" s="40" t="str">
         <f t="shared" si="9"/>
         <v>Jul</v>
@@ -10759,7 +10775,7 @@
       </c>
       <c r="C39" s="90"/>
     </row>
-    <row r="40" spans="1:3" outlineLevel="1">
+    <row r="40" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A40" s="40" t="str">
         <f t="shared" si="9"/>
         <v>Aug</v>
@@ -10770,7 +10786,7 @@
       </c>
       <c r="C40" s="90"/>
     </row>
-    <row r="41" spans="1:3" outlineLevel="1">
+    <row r="41" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A41" s="40" t="str">
         <f t="shared" si="9"/>
         <v>Sep</v>
@@ -10781,7 +10797,7 @@
       </c>
       <c r="C41" s="90"/>
     </row>
-    <row r="42" spans="1:3" outlineLevel="1">
+    <row r="42" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A42" s="40" t="str">
         <f t="shared" si="9"/>
         <v>Oct</v>
@@ -10792,7 +10808,7 @@
       </c>
       <c r="C42" s="90"/>
     </row>
-    <row r="43" spans="1:3" outlineLevel="1">
+    <row r="43" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A43" s="40" t="str">
         <f t="shared" si="9"/>
         <v>Nov</v>
@@ -10803,7 +10819,7 @@
       </c>
       <c r="C43" s="90"/>
     </row>
-    <row r="44" spans="1:3" outlineLevel="1">
+    <row r="44" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A44" s="40" t="str">
         <f t="shared" si="9"/>
         <v>Dec</v>
@@ -10814,7 +10830,7 @@
       </c>
       <c r="C44" s="90"/>
     </row>
-    <row r="45" spans="1:3" ht="15" outlineLevel="1" thickBot="1">
+    <row r="45" spans="1:3" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="22"/>
       <c r="B45" s="39">
         <f ca="1">SUM(B33:B44)</f>
@@ -10825,14 +10841,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15" outlineLevel="1" thickTop="1">
+    <row r="46" spans="1:3" ht="15" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A46" s="22"/>
       <c r="C46" s="91" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="47" spans="1:3" outlineLevel="1"/>
-    <row r="49" spans="1:28" s="84" customFormat="1">
+    <row r="47" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:28" s="84" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="75" t="s">
         <v>356</v>
       </c>
@@ -10845,7 +10861,7 @@
       <c r="AA49" s="85"/>
       <c r="AB49" s="85"/>
     </row>
-    <row r="50" spans="1:28" hidden="1" outlineLevel="1">
+    <row r="50" spans="1:28" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>42342</v>
       </c>
@@ -10878,7 +10894,7 @@
       <c r="AA50"/>
       <c r="AB50"/>
     </row>
-    <row r="51" spans="1:28" hidden="1" outlineLevel="1">
+    <row r="51" spans="1:28" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>42207</v>
       </c>
@@ -10911,7 +10927,7 @@
       <c r="AA51"/>
       <c r="AB51"/>
     </row>
-    <row r="52" spans="1:28" hidden="1" outlineLevel="1">
+    <row r="52" spans="1:28" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>42214</v>
       </c>
@@ -10944,7 +10960,7 @@
       <c r="AA52"/>
       <c r="AB52"/>
     </row>
-    <row r="53" spans="1:28" hidden="1" outlineLevel="1">
+    <row r="53" spans="1:28" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>42228</v>
       </c>
@@ -10977,7 +10993,7 @@
       <c r="AA53"/>
       <c r="AB53"/>
     </row>
-    <row r="54" spans="1:28" ht="15" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="54" spans="1:28" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F54" s="39">
         <f>SUM(F50:F53)</f>
         <v>177905</v>
@@ -10986,7 +11002,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="55" spans="1:28" collapsed="1"/>
+    <row r="55" spans="1:28" collapsed="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <conditionalFormatting sqref="AA4:AB15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
@@ -11007,20 +11023,20 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.6640625" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -11031,7 +11047,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -11042,7 +11058,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>351</v>
       </c>
@@ -11053,7 +11069,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -11061,7 +11077,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -11069,7 +11085,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -11077,7 +11093,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -11085,52 +11101,52 @@
         <v>354</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>348</v>
       </c>
@@ -11141,14 +11157,14 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
@@ -11156,7 +11172,7 @@
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>29</v>
       </c>
@@ -11170,7 +11186,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>43</v>
       </c>
@@ -11184,7 +11200,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>124</v>
       </c>
@@ -11198,7 +11214,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>49</v>
       </c>
@@ -11212,7 +11228,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>88</v>
       </c>
@@ -11224,7 +11240,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -11238,7 +11254,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>124</v>
       </c>
@@ -11252,7 +11268,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -11272,14 +11288,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="6" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
@@ -11299,7 +11315,7 @@
     <col min="17" max="17" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="13" customFormat="1" ht="57.6">
+    <row r="1" spans="1:17" s="13" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
@@ -11352,7 +11368,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="15" customFormat="1">
+    <row r="2" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14">
         <v>42005</v>
       </c>
@@ -11406,7 +11422,7 @@
         <v>460739</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="15" customFormat="1">
+    <row r="3" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14">
         <v>42005</v>
       </c>
@@ -11460,7 +11476,7 @@
         <v>460777</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="15" customFormat="1">
+    <row r="4" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
         <v>42005</v>
       </c>
@@ -11514,7 +11530,7 @@
         <v>460738</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="15" customFormat="1">
+    <row r="5" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>42005</v>
       </c>
@@ -11562,7 +11578,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="15" customFormat="1">
+    <row r="6" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>42005</v>
       </c>
@@ -11611,7 +11627,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>42005</v>
       </c>
@@ -11638,7 +11654,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="15" customFormat="1">
+    <row r="8" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>42036</v>
       </c>
@@ -11694,7 +11710,7 @@
         <v>460747</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="15" customFormat="1">
+    <row r="9" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>42036</v>
       </c>
@@ -11746,7 +11762,7 @@
         <v>460777</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="15" customFormat="1">
+    <row r="10" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>42036</v>
       </c>
@@ -11797,7 +11813,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="15" customFormat="1">
+    <row r="11" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>42036</v>
       </c>
@@ -11852,7 +11868,7 @@
         <v>460750</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="15" customFormat="1">
+    <row r="12" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>42036</v>
       </c>
@@ -11899,7 +11915,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>42036</v>
       </c>
@@ -11926,7 +11942,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="15" customFormat="1">
+    <row r="14" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>42064</v>
       </c>
@@ -11976,7 +11992,7 @@
         <v>460760</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="15" customFormat="1">
+    <row r="15" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>42064</v>
       </c>
@@ -12028,7 +12044,7 @@
         <v>460777</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="15" customFormat="1">
+    <row r="16" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <v>42064</v>
       </c>
@@ -12077,7 +12093,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <v>42064</v>
       </c>
@@ -12128,7 +12144,7 @@
         <v>460759</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
         <v>42064</v>
       </c>
@@ -12172,7 +12188,7 @@
       </c>
       <c r="P18" s="7"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <v>42064</v>
       </c>
@@ -12220,7 +12236,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
         <v>42064</v>
       </c>
@@ -12247,7 +12263,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <v>42095</v>
       </c>
@@ -12297,7 +12313,7 @@
         <v>460766</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
         <v>42095</v>
       </c>
@@ -12343,7 +12359,7 @@
       </c>
       <c r="P22" s="7"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <v>42095</v>
       </c>
@@ -12391,7 +12407,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <v>42095</v>
       </c>
@@ -12442,7 +12458,7 @@
         <v>460765</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
         <v>42095</v>
       </c>
@@ -12488,7 +12504,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <v>42095</v>
       </c>
@@ -12536,7 +12552,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
         <v>42095</v>
       </c>
@@ -12563,7 +12579,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="45">
         <v>42125</v>
       </c>
@@ -12613,7 +12629,7 @@
         <v>460783</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="45">
         <v>42125</v>
       </c>
@@ -12664,7 +12680,7 @@
         <v>460807</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="45">
         <v>42125</v>
       </c>
@@ -12709,7 +12725,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="45">
         <v>42125</v>
       </c>
@@ -12757,7 +12773,7 @@
         <v>460785</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="45">
         <v>42125</v>
       </c>
@@ -12801,7 +12817,7 @@
       </c>
       <c r="P32" s="7"/>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="45">
         <v>42125</v>
       </c>
@@ -12828,7 +12844,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="45">
         <v>42156</v>
       </c>
@@ -12878,7 +12894,7 @@
         <v>460771</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="45">
         <v>42156</v>
       </c>
@@ -12926,7 +12942,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="45">
         <v>42156</v>
       </c>
@@ -12974,7 +12990,7 @@
         <v>460807</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="45">
         <v>42156</v>
       </c>
@@ -13022,7 +13038,7 @@
         <v>460772</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="45">
         <v>42156</v>
       </c>
@@ -13068,7 +13084,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="45">
         <v>42156</v>
       </c>
@@ -13095,7 +13111,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="45">
         <v>42186</v>
       </c>
@@ -13144,7 +13160,7 @@
         <v>460797</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="45">
         <v>42186</v>
       </c>
@@ -13195,7 +13211,7 @@
         <v>460807</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="45">
         <v>42186</v>
       </c>
@@ -13243,7 +13259,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="45">
         <v>42186</v>
       </c>
@@ -13294,7 +13310,7 @@
         <v>460798</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="45">
         <v>42186</v>
       </c>
@@ -13340,7 +13356,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="45">
         <v>42186</v>
       </c>
@@ -13367,7 +13383,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="45">
         <v>42217</v>
       </c>
@@ -13418,7 +13434,7 @@
         <v>460805</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="45">
         <v>42217</v>
       </c>
@@ -13463,7 +13479,7 @@
         <v>460806</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="45">
         <v>42217</v>
       </c>
@@ -13509,7 +13525,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="45">
         <v>42217</v>
       </c>
@@ -13560,7 +13576,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="45">
         <v>42217</v>
       </c>
@@ -13587,7 +13603,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="45">
         <v>42248</v>
       </c>
@@ -13638,7 +13654,7 @@
         <v>460817</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="45">
         <v>42248</v>
       </c>
@@ -13689,7 +13705,7 @@
         <v>460818</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="45">
         <v>42248</v>
       </c>
@@ -13735,7 +13751,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="45">
         <v>42248</v>
       </c>
@@ -13789,7 +13805,7 @@
         <v>460801</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="45">
         <v>42248</v>
       </c>
@@ -13816,7 +13832,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="45">
         <v>42278</v>
       </c>
@@ -13867,7 +13883,7 @@
         <v>460824</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="45">
         <v>42278</v>
       </c>
@@ -13918,7 +13934,7 @@
         <v>460825</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="45">
         <v>42278</v>
       </c>
@@ -13970,7 +13986,7 @@
         <v>460822</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="45">
         <v>42278</v>
       </c>
@@ -13997,7 +14013,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="45">
         <v>42309</v>
       </c>
@@ -14048,7 +14064,7 @@
         <v>460838</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="45">
         <v>42309</v>
       </c>
@@ -14099,7 +14115,7 @@
         <v>460839</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="45">
         <v>42309</v>
       </c>
@@ -14153,7 +14169,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="45">
         <v>42309</v>
       </c>
@@ -14180,7 +14196,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="45">
         <v>42339</v>
       </c>
@@ -14231,7 +14247,7 @@
         <v>460852</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="45">
         <v>42339</v>
       </c>
@@ -14282,7 +14298,7 @@
         <v>460853</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="45">
         <v>42339</v>
       </c>
@@ -14336,7 +14352,7 @@
         <v>460848</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="45">
         <v>42339</v>
       </c>
@@ -14363,30 +14379,30 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O68" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P68" s="7"/>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O69" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P69" s="7"/>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P70" s="7"/>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P71" s="7"/>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P72" s="7"/>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P73" s="7"/>
     </row>
   </sheetData>
@@ -14406,14 +14422,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.109375" style="6" bestFit="1" customWidth="1"/>
@@ -14427,7 +14443,7 @@
     <col min="10" max="10" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>26</v>
       </c>
@@ -14454,7 +14470,7 @@
       </c>
       <c r="I1" s="22"/>
     </row>
-    <row r="2" spans="1:9" s="51" customFormat="1">
+    <row r="2" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="46">
         <v>42008</v>
       </c>
@@ -14474,7 +14490,7 @@
       <c r="G2" s="50"/>
       <c r="H2" s="47"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>42013</v>
       </c>
@@ -14492,7 +14508,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>42019</v>
       </c>
@@ -14507,7 +14523,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>42021</v>
       </c>
@@ -14522,7 +14538,7 @@
         <v>11136</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>42032</v>
       </c>
@@ -14540,7 +14556,7 @@
         <v>2564.25</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>42039</v>
       </c>
@@ -14555,7 +14571,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>42039</v>
       </c>
@@ -14578,7 +14594,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>42075</v>
       </c>
@@ -14601,7 +14617,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>42072</v>
       </c>
@@ -14619,7 +14635,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>42067</v>
       </c>
@@ -14637,7 +14653,7 @@
         <v>3975</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>42067</v>
       </c>
@@ -14655,7 +14671,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>42067</v>
       </c>
@@ -14673,7 +14689,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>42067</v>
       </c>
@@ -14691,7 +14707,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>42067</v>
       </c>
@@ -14709,7 +14725,7 @@
         <v>22549</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>42068</v>
       </c>
@@ -14727,7 +14743,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>42068</v>
       </c>
@@ -14745,7 +14761,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>42068</v>
       </c>
@@ -14763,7 +14779,7 @@
         <v>4060</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>42068</v>
       </c>
@@ -14778,7 +14794,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>42072</v>
       </c>
@@ -14796,7 +14812,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>42080</v>
       </c>
@@ -14811,7 +14827,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>42096</v>
       </c>
@@ -14829,7 +14845,7 @@
         <v>8830</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>42102</v>
       </c>
@@ -14847,7 +14863,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>42103</v>
       </c>
@@ -14865,7 +14881,7 @@
         <v>2405</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>42108</v>
       </c>
@@ -14883,7 +14899,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>42108</v>
       </c>
@@ -14898,7 +14914,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>42110</v>
       </c>
@@ -14913,7 +14929,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>42111</v>
       </c>
@@ -14931,7 +14947,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>42116</v>
       </c>
@@ -14949,7 +14965,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>42116</v>
       </c>
@@ -14967,7 +14983,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>42119</v>
       </c>
@@ -14982,7 +14998,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>42124</v>
       </c>
@@ -14997,7 +15013,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>42101</v>
       </c>
@@ -15020,7 +15036,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>42122</v>
       </c>
@@ -15043,7 +15059,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>42156</v>
       </c>
@@ -15062,7 +15078,7 @@
       </c>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>42161</v>
       </c>
@@ -15077,7 +15093,7 @@
         <v>10968</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>42165</v>
       </c>
@@ -15092,7 +15108,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>42167</v>
       </c>
@@ -15110,7 +15126,7 @@
         <v>2888</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>42200</v>
       </c>
@@ -15128,7 +15144,7 @@
         <v>20300</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>42220</v>
       </c>
@@ -15146,7 +15162,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B41" s="52" t="s">
         <v>82</v>
       </c>
@@ -15158,7 +15174,7 @@
         <v>2272</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>42221</v>
       </c>
@@ -15176,7 +15192,7 @@
         <v>11308</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>42226</v>
       </c>
@@ -15191,7 +15207,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>42224</v>
       </c>
@@ -15209,7 +15225,7 @@
         <v>15350</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>42262</v>
       </c>
@@ -15227,7 +15243,7 @@
         <v>55600</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>42262</v>
       </c>
@@ -15245,7 +15261,7 @@
         <v>14500</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>42266</v>
       </c>
@@ -15263,7 +15279,7 @@
         <v>10784</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>42266</v>
       </c>
@@ -15281,7 +15297,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>42269</v>
       </c>
@@ -15299,7 +15315,7 @@
         <v>172660</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>42270</v>
       </c>
@@ -15317,7 +15333,7 @@
         <v>6130</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>42276</v>
       </c>
@@ -15335,7 +15351,7 @@
         <v>9750</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>42202</v>
       </c>
@@ -15358,7 +15374,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>42212</v>
       </c>
@@ -15381,7 +15397,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>42275</v>
       </c>
@@ -15404,7 +15420,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>42292</v>
       </c>
@@ -15423,7 +15439,7 @@
       </c>
       <c r="H55" s="6"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>42304</v>
       </c>
@@ -15438,7 +15454,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B57" s="52" t="s">
         <v>82</v>
       </c>
@@ -15450,7 +15466,7 @@
         <v>3060</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>42332</v>
       </c>
@@ -15473,7 +15489,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>42369</v>
       </c>
@@ -15497,7 +15513,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>42331</v>
       </c>
@@ -15515,7 +15531,7 @@
         <v>5850</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>42353</v>
       </c>
@@ -15533,7 +15549,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>42367</v>
       </c>
@@ -15549,7 +15565,7 @@
         <v>3528</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>42359</v>
       </c>
@@ -15567,7 +15583,7 @@
         <v>18450</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>42357</v>
       </c>
@@ -15585,7 +15601,7 @@
         <v>3992</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>42355</v>
       </c>
@@ -15603,7 +15619,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>42358</v>
       </c>
@@ -15618,7 +15634,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>42367</v>
       </c>
@@ -15635,7 +15651,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>42367</v>
       </c>
@@ -15652,7 +15668,7 @@
         <v>11700</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>42355</v>
       </c>
@@ -15669,7 +15685,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>42369</v>
       </c>
@@ -15703,14 +15719,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.5546875" style="35" customWidth="1"/>
@@ -15723,7 +15739,7 @@
     <col min="11" max="11" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -15758,7 +15774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>42025</v>
       </c>
@@ -15781,7 +15797,7 @@
         <v>42025</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>42025</v>
       </c>
@@ -15804,7 +15820,7 @@
         <v>42025</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>42031</v>
       </c>
@@ -15827,7 +15843,7 @@
         <v>42031</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>42016</v>
       </c>
@@ -15856,7 +15872,7 @@
         <v>42074</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>42034</v>
       </c>
@@ -15885,7 +15901,7 @@
         <v>42074</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>42016</v>
       </c>
@@ -15908,7 +15924,7 @@
         <v>42016</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>42035</v>
       </c>
@@ -15931,7 +15947,7 @@
         <v>42035</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>42016</v>
       </c>
@@ -15954,7 +15970,7 @@
         <v>42016</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>42014</v>
       </c>
@@ -15977,7 +15993,7 @@
         <v>42014</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>42019</v>
       </c>
@@ -16000,7 +16016,7 @@
         <v>42019</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>42055</v>
       </c>
@@ -16023,7 +16039,7 @@
         <v>42055</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>42027</v>
       </c>
@@ -16046,7 +16062,7 @@
         <v>42027</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>42033</v>
       </c>
@@ -16069,7 +16085,7 @@
         <v>42033</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>42035</v>
       </c>
@@ -16092,7 +16108,7 @@
         <v>42035</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>42021</v>
       </c>
@@ -16115,7 +16131,7 @@
         <v>42021</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>42032</v>
       </c>
@@ -16138,7 +16154,7 @@
         <v>42032</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>42014</v>
       </c>
@@ -16161,7 +16177,7 @@
         <v>42014</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>42034</v>
       </c>
@@ -16184,7 +16200,7 @@
         <v>42034</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>42009</v>
       </c>
@@ -16207,7 +16223,7 @@
         <v>42009</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>42005</v>
       </c>
@@ -16239,7 +16255,7 @@
         <v>42023</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>42005</v>
       </c>
@@ -16265,7 +16281,7 @@
         <v>42046</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>42035</v>
       </c>
@@ -16286,7 +16302,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:10" ht="16.2">
+    <row r="24" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>42031</v>
       </c>
@@ -16315,7 +16331,7 @@
         <v>42037</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="18" customHeight="1">
+    <row r="25" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>42022</v>
       </c>
@@ -16341,7 +16357,7 @@
         <v>42022</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="18" customHeight="1">
+    <row r="26" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="13" t="s">
         <v>23</v>
@@ -16357,7 +16373,7 @@
       </c>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:10" ht="18" customHeight="1">
+    <row r="27" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="13" t="s">
         <v>23</v>
@@ -16373,7 +16389,7 @@
       </c>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:10" ht="18" customHeight="1">
+    <row r="28" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="13" t="s">
         <v>23</v>
@@ -16389,156 +16405,156 @@
       </c>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="13"/>
       <c r="E29" s="7"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="13"/>
       <c r="E30" s="7"/>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="13"/>
       <c r="E31" s="7"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="13"/>
       <c r="E32" s="7"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="13"/>
       <c r="E33" s="7"/>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="13"/>
       <c r="E34" s="7"/>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="E35" s="7"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="13"/>
       <c r="E36" s="7"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="E37" s="7"/>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="13"/>
       <c r="E38" s="7"/>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="E39" s="7"/>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="E40" s="7"/>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="E41" s="7"/>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E42" s="7"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="E43" s="7"/>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="E44" s="7"/>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="E45" s="7"/>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="E46" s="7"/>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="E47" s="7"/>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="E48" s="7"/>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="E49" s="7"/>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="E50" s="7"/>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E51" s="7"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="E52" s="7"/>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="E53" s="7"/>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="E54" s="7"/>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="E55" s="7"/>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="E56" s="7"/>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="E57" s="7"/>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E58" s="7"/>
       <c r="H58" s="4"/>
     </row>
@@ -16557,14 +16573,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView topLeftCell="C6" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.109375" style="35" customWidth="1"/>
@@ -16577,7 +16593,7 @@
     <col min="11" max="11" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -16612,7 +16628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>42049</v>
       </c>
@@ -16636,7 +16652,7 @@
       </c>
       <c r="J2"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>42039</v>
       </c>
@@ -16665,7 +16681,7 @@
         <v>42074</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>42060</v>
       </c>
@@ -16689,7 +16705,7 @@
       </c>
       <c r="J4"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>42044</v>
       </c>
@@ -16714,7 +16730,7 @@
       <c r="I5" s="6"/>
       <c r="J5"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>42052</v>
       </c>
@@ -16743,7 +16759,7 @@
         <v>42046</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>42040</v>
       </c>
@@ -16767,7 +16783,7 @@
       </c>
       <c r="J7"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>42038</v>
       </c>
@@ -16791,7 +16807,7 @@
       </c>
       <c r="J8"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>42046</v>
       </c>
@@ -16815,7 +16831,7 @@
       </c>
       <c r="J9"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>42049</v>
       </c>
@@ -16839,7 +16855,7 @@
       </c>
       <c r="J10"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>42038</v>
       </c>
@@ -16863,7 +16879,7 @@
       </c>
       <c r="J11"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>42038</v>
       </c>
@@ -16887,7 +16903,7 @@
       </c>
       <c r="J12"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>42047</v>
       </c>
@@ -16911,7 +16927,7 @@
       </c>
       <c r="J13"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>42048</v>
       </c>
@@ -16935,7 +16951,7 @@
       </c>
       <c r="J14"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>42040</v>
       </c>
@@ -16959,7 +16975,7 @@
       </c>
       <c r="J15"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>42040</v>
       </c>
@@ -16980,7 +16996,7 @@
       </c>
       <c r="J16"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>42037</v>
       </c>
@@ -17007,7 +17023,7 @@
         <v>41687</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>42036</v>
       </c>
@@ -17034,7 +17050,7 @@
         <v>41687</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>42036</v>
       </c>
@@ -17060,7 +17076,7 @@
         <v>42101</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>42038</v>
       </c>
@@ -17081,7 +17097,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>42048</v>
       </c>
@@ -17111,7 +17127,7 @@
         <v>42051</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>42044</v>
       </c>
@@ -17143,7 +17159,7 @@
         <v>42051</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>42049</v>
       </c>
@@ -17169,7 +17185,7 @@
         <v>42049</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>42039</v>
       </c>
@@ -17193,7 +17209,7 @@
         <v>42039</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>42063</v>
       </c>
@@ -17220,7 +17236,7 @@
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>42063</v>
       </c>
@@ -17246,7 +17262,7 @@
         <v>42063</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>42046</v>
       </c>
@@ -17272,7 +17288,7 @@
         <v>42046</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>42036</v>
       </c>
@@ -17304,7 +17320,7 @@
         <v>42040</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>42036</v>
       </c>
@@ -17330,7 +17346,7 @@
         <v>42071</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>42063</v>
       </c>
@@ -17351,7 +17367,7 @@
       </c>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:10" ht="16.2">
+    <row r="31" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>42063</v>
       </c>
@@ -17380,7 +17396,7 @@
         <v>42068</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>42053</v>
       </c>
@@ -17406,7 +17422,7 @@
         <v>42053</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>42046</v>
       </c>
@@ -17429,7 +17445,7 @@
         <v>42050</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>42038</v>
       </c>
@@ -17452,7 +17468,7 @@
         <v>42050</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>42045</v>
       </c>
@@ -17473,7 +17489,7 @@
       </c>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="13" t="s">
         <v>23</v>
@@ -17490,7 +17506,7 @@
       <c r="G36" s="7"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="13" t="s">
         <v>23</v>
@@ -17507,7 +17523,7 @@
       <c r="G37" s="7"/>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="13" t="s">
         <v>23</v>
@@ -17524,112 +17540,112 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="13"/>
       <c r="E39" s="7"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="13"/>
       <c r="E40" s="7"/>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="13"/>
       <c r="E41" s="7"/>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="E42" s="7"/>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="E43" s="7"/>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E44" s="7"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="E45" s="7"/>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="E46" s="7"/>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="E47" s="7"/>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="E48" s="7"/>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="E49" s="7"/>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="E50" s="7"/>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="E51" s="7"/>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="E52" s="7"/>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E53" s="7"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="E54" s="7"/>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="E55" s="7"/>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="E56" s="7"/>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="E57" s="7"/>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="E58" s="7"/>
       <c r="H58" s="4"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="E59" s="7"/>
       <c r="H59" s="4"/>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E60" s="7"/>
       <c r="H60" s="4"/>
     </row>
@@ -17648,14 +17664,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A101" sqref="A101:XFD101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.109375" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" style="35" customWidth="1"/>
@@ -17670,7 +17686,7 @@
     <col min="12" max="12" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -17705,7 +17721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>42079</v>
       </c>
@@ -17728,7 +17744,7 @@
         <v>42079</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>42082</v>
       </c>
@@ -17751,7 +17767,7 @@
         <v>42082</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>42090</v>
       </c>
@@ -17774,7 +17790,7 @@
         <v>42090</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>42090</v>
       </c>
@@ -17797,7 +17813,7 @@
         <v>42090</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>42073</v>
       </c>
@@ -17826,7 +17842,7 @@
         <v>42178</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>42076</v>
       </c>
@@ -17855,7 +17871,7 @@
         <v>42178</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>42082</v>
       </c>
@@ -17878,7 +17894,7 @@
         <v>42082</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>42093</v>
       </c>
@@ -17901,7 +17917,7 @@
         <v>42093</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>42083</v>
       </c>
@@ -17924,7 +17940,7 @@
         <v>42083</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>42069</v>
       </c>
@@ -17947,7 +17963,7 @@
         <v>42069</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>42086</v>
       </c>
@@ -17970,7 +17986,7 @@
         <v>42086</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>42089</v>
       </c>
@@ -17993,7 +18009,7 @@
         <v>42089</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>42077</v>
       </c>
@@ -18016,7 +18032,7 @@
         <v>42077</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>42094</v>
       </c>
@@ -18039,7 +18055,7 @@
         <v>42094</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>42077</v>
       </c>
@@ -18062,7 +18078,7 @@
         <v>42077</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>42069</v>
       </c>
@@ -18085,7 +18101,7 @@
         <v>42069</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>42094</v>
       </c>
@@ -18106,7 +18122,7 @@
         <v>42094</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>42090</v>
       </c>
@@ -18129,7 +18145,7 @@
         <v>42090</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>42057</v>
       </c>
@@ -18150,7 +18166,7 @@
         <v>42057</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>42090</v>
       </c>
@@ -18173,7 +18189,7 @@
         <v>42090</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>42087</v>
       </c>
@@ -18196,7 +18212,7 @@
         <v>42087</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>42093</v>
       </c>
@@ -18216,7 +18232,7 @@
         <v>42093</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>42090</v>
       </c>
@@ -18236,7 +18252,7 @@
         <v>42090</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>42086</v>
       </c>
@@ -18253,7 +18269,7 @@
         <v>42086</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>42064</v>
       </c>
@@ -18277,7 +18293,7 @@
       </c>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>42069</v>
       </c>
@@ -18300,7 +18316,7 @@
         <v>42069</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>42070</v>
       </c>
@@ -18323,7 +18339,7 @@
         <v>42070</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>42073</v>
       </c>
@@ -18346,7 +18362,7 @@
         <v>42073</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>42076</v>
       </c>
@@ -18369,7 +18385,7 @@
         <v>42076</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>42077</v>
       </c>
@@ -18392,7 +18408,7 @@
         <v>42077</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>42082</v>
       </c>
@@ -18427,7 +18443,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>42089</v>
       </c>
@@ -18462,7 +18478,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>42064</v>
       </c>
@@ -18494,7 +18510,7 @@
         <v>42158</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>42064</v>
       </c>
@@ -18526,7 +18542,7 @@
         <v>42067</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>42066</v>
       </c>
@@ -18549,7 +18565,7 @@
         <v>42064</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>42064</v>
       </c>
@@ -18572,7 +18588,7 @@
         <v>42064</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="16.2">
+    <row r="38" spans="1:11" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>42090</v>
       </c>
@@ -18601,7 +18617,7 @@
         <v>42089</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>42081</v>
       </c>
@@ -18624,7 +18640,7 @@
         <v>42081</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>42074</v>
       </c>
@@ -18647,7 +18663,7 @@
         <v>42074</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>42076</v>
       </c>
@@ -18670,7 +18686,7 @@
         <v>42076</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="13" t="s">
         <v>23</v>
@@ -18686,7 +18702,7 @@
       </c>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="13" t="s">
         <v>23</v>
@@ -18702,7 +18718,7 @@
       </c>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="13" t="s">
         <v>23</v>
@@ -18718,7 +18734,7 @@
       </c>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>42076</v>
       </c>
@@ -18739,7 +18755,7 @@
       </c>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>42086</v>
       </c>
@@ -18765,115 +18781,115 @@
         <v>42086</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="13"/>
       <c r="E47" s="7"/>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="E48" s="7"/>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="13"/>
       <c r="E49" s="7"/>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="E50" s="7"/>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="E51" s="7"/>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="E52" s="7"/>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E53" s="7"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="E54" s="7"/>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="E55" s="7"/>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="E56" s="7"/>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="E57" s="7"/>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="E58" s="7"/>
       <c r="H58" s="4"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="E59" s="7"/>
       <c r="H59" s="4"/>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="E60" s="7"/>
       <c r="H60" s="4"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="E61" s="7"/>
       <c r="H61" s="4"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E62" s="7"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="E63" s="7"/>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="E64" s="7"/>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="E65" s="7"/>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="E66" s="7"/>
       <c r="H66" s="4"/>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="E67" s="7"/>
       <c r="H67" s="4"/>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
       <c r="E68" s="7"/>
       <c r="H68" s="4"/>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E69" s="7"/>
       <c r="H69" s="4"/>
     </row>
@@ -18892,14 +18908,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K75"/>
   <sheetViews>
     <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.109375" customWidth="1"/>
     <col min="2" max="2" width="31.5546875" style="35" customWidth="1"/>
@@ -18912,7 +18928,7 @@
     <col min="11" max="11" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -18947,7 +18963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>42100</v>
       </c>
@@ -18970,7 +18986,7 @@
         <v>42100</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>42103</v>
       </c>
@@ -18993,7 +19009,7 @@
         <v>42103</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>42103</v>
       </c>
@@ -19016,7 +19032,7 @@
         <v>42103</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>42103</v>
       </c>
@@ -19040,7 +19056,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>42120</v>
       </c>
@@ -19064,7 +19080,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>42121</v>
       </c>
@@ -19088,7 +19104,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>42109</v>
       </c>
@@ -19112,7 +19128,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>42103</v>
       </c>
@@ -19136,7 +19152,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>42103</v>
       </c>
@@ -19160,7 +19176,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>42107</v>
       </c>
@@ -19184,7 +19200,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>42111</v>
       </c>
@@ -19207,7 +19223,7 @@
         <v>42111</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>42108</v>
       </c>
@@ -19230,7 +19246,7 @@
         <v>42108</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>42116</v>
       </c>
@@ -19253,7 +19269,7 @@
         <v>42116</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>42111</v>
       </c>
@@ -19276,7 +19292,7 @@
         <v>42111</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>42116</v>
       </c>
@@ -19305,7 +19321,7 @@
         <v>42178</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>42098</v>
       </c>
@@ -19328,7 +19344,7 @@
         <v>42098</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>42101</v>
       </c>
@@ -19351,7 +19367,7 @@
         <v>42101</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>42112</v>
       </c>
@@ -19374,7 +19390,7 @@
         <v>42112</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>42114</v>
       </c>
@@ -19397,7 +19413,7 @@
         <v>42114</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>42116</v>
       </c>
@@ -19420,7 +19436,7 @@
         <v>42116</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>42119</v>
       </c>
@@ -19443,7 +19459,7 @@
         <v>42119</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>42103</v>
       </c>
@@ -19473,7 +19489,7 @@
       </c>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>42117</v>
       </c>
@@ -19503,7 +19519,7 @@
       </c>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>42116</v>
       </c>
@@ -19533,7 +19549,7 @@
       </c>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>42108</v>
       </c>
@@ -19558,7 +19574,7 @@
       <c r="I26" s="4"/>
       <c r="J26"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>42115</v>
       </c>
@@ -19583,7 +19599,7 @@
       <c r="I27" s="4"/>
       <c r="J27"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>42107</v>
       </c>
@@ -19606,7 +19622,7 @@
         <v>42107</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>42104</v>
       </c>
@@ -19629,7 +19645,7 @@
         <v>42104</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>42118</v>
       </c>
@@ -19652,7 +19668,7 @@
         <v>42118</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>42101</v>
       </c>
@@ -19673,7 +19689,7 @@
         <v>42101</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>42102</v>
       </c>
@@ -19696,7 +19712,7 @@
         <v>42102</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>42109</v>
       </c>
@@ -19719,7 +19735,7 @@
         <v>42109</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>42115</v>
       </c>
@@ -19742,7 +19758,7 @@
         <v>42115</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>42116</v>
       </c>
@@ -19765,7 +19781,7 @@
         <v>42116</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>42105</v>
       </c>
@@ -19787,7 +19803,7 @@
       </c>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>42101</v>
       </c>
@@ -19808,7 +19824,7 @@
         <v>42101</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>42114</v>
       </c>
@@ -19829,7 +19845,7 @@
         <v>42114</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>42119</v>
       </c>
@@ -19850,7 +19866,7 @@
         <v>42119</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>42097</v>
       </c>
@@ -19871,7 +19887,7 @@
         <v>42097</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>42117</v>
       </c>
@@ -19895,7 +19911,7 @@
       </c>
       <c r="I41" s="6"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>42097</v>
       </c>
@@ -19913,7 +19929,7 @@
       </c>
       <c r="I42" s="6"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>42115</v>
       </c>
@@ -19937,7 +19953,7 @@
       </c>
       <c r="I43" s="6"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>42113</v>
       </c>
@@ -19966,7 +19982,7 @@
         <v>42157</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>42108</v>
       </c>
@@ -19989,7 +20005,7 @@
         <v>42108</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>42104</v>
       </c>
@@ -20012,7 +20028,7 @@
         <v>42104</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>42109</v>
       </c>
@@ -20038,7 +20054,7 @@
         <v>42109</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>42064</v>
       </c>
@@ -20070,7 +20086,7 @@
         <v>42158</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>42095</v>
       </c>
@@ -20102,7 +20118,7 @@
         <v>42095</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>42095</v>
       </c>
@@ -20123,7 +20139,7 @@
       </c>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="1:10" ht="16.2">
+    <row r="51" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>42119</v>
       </c>
@@ -20152,7 +20168,7 @@
         <v>42121</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="12.75" customHeight="1">
+    <row r="52" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>42112</v>
       </c>
@@ -20173,7 +20189,7 @@
       </c>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="1:10" ht="15" customHeight="1">
+    <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="13" t="s">
         <v>23</v>
@@ -20190,7 +20206,7 @@
       </c>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="1:10" ht="18.75" customHeight="1">
+    <row r="54" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="13" t="s">
         <v>23</v>
@@ -20207,7 +20223,7 @@
       </c>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="1:10" ht="16.5" customHeight="1">
+    <row r="55" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="13" t="s">
         <v>23</v>
@@ -20223,7 +20239,7 @@
       </c>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="1:10" ht="19.5" customHeight="1">
+    <row r="56" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="13" t="s">
         <v>23</v>
@@ -20239,7 +20255,7 @@
       </c>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="1:10" ht="17.25" customHeight="1">
+    <row r="57" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="13" t="s">
         <v>23</v>
@@ -20255,7 +20271,7 @@
       </c>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="13" t="s">
         <v>22</v>
@@ -20271,7 +20287,7 @@
       </c>
       <c r="H58" s="4"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="35" t="s">
         <v>18</v>
@@ -20284,81 +20300,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="13"/>
       <c r="E60" s="7"/>
       <c r="H60" s="4"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="E61" s="7"/>
       <c r="H61" s="4"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="E62" s="7"/>
       <c r="H62" s="4"/>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="E63" s="7"/>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="E64" s="7"/>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="E65" s="7"/>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="E66" s="7"/>
       <c r="H66" s="4"/>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="E67" s="7"/>
       <c r="H67" s="4"/>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E68" s="7"/>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
       <c r="E69" s="7"/>
       <c r="H69" s="4"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
       <c r="E70" s="7"/>
       <c r="H70" s="4"/>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="E71" s="7"/>
       <c r="H71" s="4"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="E72" s="7"/>
       <c r="H72" s="4"/>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="E73" s="7"/>
       <c r="H73" s="4"/>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
       <c r="E74" s="7"/>
       <c r="H74" s="4"/>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E75" s="7"/>
       <c r="H75" s="4"/>
     </row>
@@ -20377,14 +20393,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.109375" style="35" customWidth="1"/>
@@ -20397,7 +20413,7 @@
     <col min="11" max="11" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -20432,7 +20448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>42138</v>
       </c>
@@ -20455,7 +20471,7 @@
         <v>42138</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>42128</v>
       </c>
@@ -20487,7 +20503,7 @@
         <v>42251</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>42143</v>
       </c>
@@ -20510,7 +20526,7 @@
         <v>42143</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>42143</v>
       </c>
@@ -20534,7 +20550,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>42144</v>
       </c>
@@ -20558,7 +20574,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>42129</v>
       </c>
@@ -20581,7 +20597,7 @@
         <v>42129</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>42142</v>
       </c>
@@ -20604,7 +20620,7 @@
         <v>42142</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>42143</v>
       </c>
@@ -20627,7 +20643,7 @@
         <v>42143</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>42129</v>
       </c>
@@ -20650,7 +20666,7 @@
         <v>42129</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>42143</v>
       </c>
@@ -20673,7 +20689,7 @@
         <v>42143</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>42128</v>
       </c>
@@ -20696,7 +20712,7 @@
         <v>42128</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>42128</v>
       </c>
@@ -20719,7 +20735,7 @@
         <v>42128</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>42142</v>
       </c>
@@ -20748,7 +20764,7 @@
         <v>42143</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>42152</v>
       </c>
@@ -20769,7 +20785,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>42129</v>
       </c>
@@ -20798,7 +20814,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>42139</v>
       </c>
@@ -20821,7 +20837,7 @@
         <v>42139</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>42149</v>
       </c>
@@ -20844,7 +20860,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>42150</v>
       </c>
@@ -20867,7 +20883,7 @@
         <v>42150</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>42142</v>
       </c>
@@ -20889,7 +20905,7 @@
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>42145</v>
       </c>
@@ -20910,7 +20926,7 @@
         <v>42145</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>42130</v>
       </c>
@@ -20933,7 +20949,7 @@
         <v>42130</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>42153</v>
       </c>
@@ -20956,7 +20972,7 @@
         <v>42153</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>42130</v>
       </c>
@@ -20982,7 +20998,7 @@
         <v>42130</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>42143</v>
       </c>
@@ -21006,7 +21022,7 @@
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>42127</v>
       </c>
@@ -21029,7 +21045,7 @@
         <v>42127</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>42143</v>
       </c>
@@ -21055,7 +21071,7 @@
         <v>42143</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>42152</v>
       </c>
@@ -21081,7 +21097,7 @@
         <v>42152</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>42149</v>
       </c>
@@ -21107,7 +21123,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>42134</v>
       </c>
@@ -21133,7 +21149,7 @@
         <v>42134</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>42151</v>
       </c>
@@ -21165,7 +21181,7 @@
         <v>42158</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>42125</v>
       </c>
@@ -21194,7 +21210,7 @@
         <v>42135</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>42125</v>
       </c>
@@ -21215,7 +21231,7 @@
       </c>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:10" ht="16.2">
+    <row r="34" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>42150</v>
       </c>
@@ -21244,7 +21260,7 @@
         <v>42151</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="13" t="s">
         <v>348</v>
@@ -21274,7 +21290,7 @@
         <v>42137</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>42142</v>
       </c>
@@ -21295,7 +21311,7 @@
       </c>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="13" t="s">
         <v>23</v>
@@ -21312,7 +21328,7 @@
       </c>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="13" t="s">
         <v>23</v>
@@ -21329,7 +21345,7 @@
       </c>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="13" t="s">
         <v>23</v>
@@ -21345,7 +21361,7 @@
       </c>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="13" t="s">
         <v>23</v>
@@ -21361,7 +21377,7 @@
       </c>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="13" t="s">
         <v>23</v>
@@ -21377,7 +21393,7 @@
       </c>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="13" t="s">
         <v>22</v>
@@ -21391,7 +21407,7 @@
       </c>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="35" t="s">
         <v>18</v>
@@ -21405,182 +21421,182 @@
       </c>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="13"/>
       <c r="E44" s="7"/>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="E45" s="7"/>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="13"/>
       <c r="E46" s="7"/>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="13"/>
       <c r="E47" s="7"/>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="13"/>
       <c r="E48" s="7"/>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="13"/>
       <c r="E49" s="7"/>
       <c r="G49"/>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="13"/>
       <c r="E50" s="7"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="13"/>
       <c r="E51" s="7"/>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="13"/>
       <c r="E52" s="7"/>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="13"/>
       <c r="D53" s="55"/>
       <c r="E53" s="7"/>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="13"/>
       <c r="E54" s="7"/>
       <c r="G54"/>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="13"/>
       <c r="E55" s="7"/>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="1:8" ht="16.5" customHeight="1">
+    <row r="56" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="13"/>
       <c r="E56" s="7"/>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="1:8" ht="15.75" customHeight="1">
+    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="13"/>
       <c r="E57" s="7"/>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="1:8" ht="14.25" customHeight="1">
+    <row r="58" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="13"/>
       <c r="E58" s="7"/>
       <c r="H58" s="4"/>
     </row>
-    <row r="59" spans="1:8" ht="14.25" customHeight="1">
+    <row r="59" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="13"/>
       <c r="E59" s="7"/>
     </row>
-    <row r="60" spans="1:8" ht="15.75" customHeight="1">
+    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="13"/>
       <c r="E60" s="7"/>
       <c r="H60" s="4"/>
     </row>
-    <row r="61" spans="1:8" ht="15.75" customHeight="1">
+    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="13"/>
       <c r="E61" s="7"/>
       <c r="H61" s="4"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="B62" s="13"/>
       <c r="E62" s="7"/>
       <c r="H62" s="4"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="D63" s="8"/>
       <c r="E63" s="7"/>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="13"/>
       <c r="E64" s="7"/>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="E65" s="7"/>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="E66" s="7"/>
       <c r="H66" s="4"/>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="E67" s="7"/>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
       <c r="E68" s="7"/>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
       <c r="E69" s="7"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
       <c r="E70" s="7"/>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="E71" s="7"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E72" s="7"/>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="E73" s="7"/>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
       <c r="E74" s="7"/>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="4"/>
       <c r="E75" s="7"/>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="4"/>
       <c r="E76" s="7"/>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="4"/>
       <c r="E77" s="7"/>
     </row>
@@ -21599,14 +21615,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K77"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.44140625" style="35" customWidth="1"/>
@@ -21619,7 +21635,7 @@
     <col min="11" max="11" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -21654,7 +21670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>42157</v>
       </c>
@@ -21677,7 +21693,7 @@
         <v>42157</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>42168</v>
       </c>
@@ -21700,7 +21716,7 @@
         <v>42168</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>42180</v>
       </c>
@@ -21723,7 +21739,7 @@
         <v>42180</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>42167</v>
       </c>
@@ -21747,7 +21763,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>42157</v>
       </c>
@@ -21771,7 +21787,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>42177</v>
       </c>
@@ -21794,7 +21810,7 @@
         <v>42177</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>42170</v>
       </c>
@@ -21823,7 +21839,7 @@
         <v>42251</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>42166</v>
       </c>
@@ -21846,7 +21862,7 @@
         <v>42166</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>42161</v>
       </c>
@@ -21869,7 +21885,7 @@
         <v>42161</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>42163</v>
       </c>
@@ -21892,7 +21908,7 @@
         <v>42163</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>42166</v>
       </c>
@@ -21915,7 +21931,7 @@
         <v>42166</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>42167</v>
       </c>
@@ -21938,7 +21954,7 @@
         <v>42167</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>42175</v>
       </c>
@@ -21961,7 +21977,7 @@
         <v>42175</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>42175</v>
       </c>
@@ -21984,7 +22000,7 @@
         <v>42175</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>42172</v>
       </c>
@@ -22007,7 +22023,7 @@
         <v>42172</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>42170</v>
       </c>
@@ -22030,7 +22046,7 @@
         <v>42170</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>42171</v>
       </c>
@@ -22053,7 +22069,7 @@
         <v>42171</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>42179</v>
       </c>
@@ -22082,7 +22098,7 @@
         <v>42307</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>42177</v>
       </c>
@@ -22111,7 +22127,7 @@
         <v>42179</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>42168</v>
       </c>
@@ -22134,7 +22150,7 @@
         <v>42168</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>42168</v>
       </c>
@@ -22157,7 +22173,7 @@
         <v>42168</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>42171</v>
       </c>
@@ -22181,7 +22197,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>42184</v>
       </c>
@@ -22204,7 +22220,7 @@
         <v>42184</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>42157</v>
       </c>
@@ -22227,7 +22243,7 @@
         <v>42157</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>42185</v>
       </c>
@@ -22248,7 +22264,7 @@
         <v>42185</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>42180</v>
       </c>
@@ -22271,7 +22287,7 @@
         <v>42180</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>42172</v>
       </c>
@@ -22294,7 +22310,7 @@
         <v>42172</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>42177</v>
       </c>
@@ -22317,7 +22333,7 @@
         <v>42177</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>42177</v>
       </c>
@@ -22340,7 +22356,7 @@
         <v>42177</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>42173</v>
       </c>
@@ -22363,7 +22379,7 @@
         <v>42173</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>42167</v>
       </c>
@@ -22386,7 +22402,7 @@
         <v>42167</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>42163</v>
       </c>
@@ -22409,7 +22425,7 @@
         <v>42163</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="65" t="s">
         <v>234</v>
       </c>
@@ -22432,7 +22448,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="65" t="s">
         <v>234</v>
       </c>
@@ -22455,7 +22471,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>42167</v>
       </c>
@@ -22478,7 +22494,7 @@
         <v>42167</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>42166</v>
       </c>
@@ -22501,7 +22517,7 @@
         <v>42166</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="13" t="s">
         <v>94</v>
@@ -22525,7 +22541,7 @@
         <v>42159</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="13" t="s">
         <v>94</v>
@@ -22539,7 +22555,7 @@
       </c>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="13" t="s">
         <v>94</v>
@@ -22553,7 +22569,7 @@
       </c>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>42182</v>
       </c>
@@ -22585,7 +22601,7 @@
         <v>42220</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>42149</v>
       </c>
@@ -22617,7 +22633,7 @@
         <v>42165</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>42156</v>
       </c>
@@ -22640,7 +22656,7 @@
         <v>42156</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="16.2">
+    <row r="44" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>42180</v>
       </c>
@@ -22669,7 +22685,7 @@
         <v>42180</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="18" customHeight="1">
+    <row r="45" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>42173</v>
       </c>
@@ -22692,7 +22708,7 @@
         <v>42173</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="16.5" customHeight="1">
+    <row r="46" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="13" t="s">
         <v>23</v>
@@ -22706,7 +22722,7 @@
       </c>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:10" ht="16.5" customHeight="1">
+    <row r="47" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="13" t="s">
         <v>23</v>
@@ -22720,7 +22736,7 @@
       </c>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:10" ht="17.25" customHeight="1">
+    <row r="48" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="13" t="s">
         <v>23</v>
@@ -22736,7 +22752,7 @@
       </c>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:11" ht="13.5" customHeight="1">
+    <row r="49" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="13" t="s">
         <v>23</v>
@@ -22751,7 +22767,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="15.75" customHeight="1">
+    <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="13" t="s">
         <v>23</v>
@@ -22767,7 +22783,7 @@
       </c>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="13" t="s">
         <v>22</v>
@@ -22781,7 +22797,7 @@
       </c>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="35" t="s">
         <v>18</v>
@@ -22795,7 +22811,7 @@
       </c>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>42177</v>
       </c>
@@ -22824,70 +22840,70 @@
         <v>270</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="E54" s="7"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="E55" s="7"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="E56" s="7"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="E57" s="7"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="E58" s="7"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="E59" s="7"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="E60" s="7"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E61" s="7"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="E62" s="7"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="E63" s="7"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="E64" s="7"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="E65" s="7"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="E66" s="7"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B67" s="4"/>
       <c r="C67" s="35"/>
       <c r="D67" s="8"/>
@@ -22895,7 +22911,7 @@
       <c r="F67" s="7"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B68" s="4"/>
       <c r="C68" s="35"/>
       <c r="D68" s="8"/>
@@ -22903,7 +22919,7 @@
       <c r="F68" s="7"/>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B69" s="4"/>
       <c r="C69" s="35"/>
       <c r="D69" s="8"/>
@@ -22911,7 +22927,7 @@
       <c r="F69" s="7"/>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B70" s="4"/>
       <c r="C70" s="35"/>
       <c r="D70" s="8"/>
@@ -22919,7 +22935,7 @@
       <c r="F70" s="7"/>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B71" s="4"/>
       <c r="C71" s="35"/>
       <c r="D71" s="8"/>
@@ -22927,7 +22943,7 @@
       <c r="F71" s="7"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B72"/>
       <c r="C72" s="35"/>
       <c r="D72" s="8"/>
@@ -22935,7 +22951,7 @@
       <c r="F72" s="7"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B73" s="4"/>
       <c r="C73" s="35"/>
       <c r="D73" s="8"/>
@@ -22943,7 +22959,7 @@
       <c r="F73" s="7"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B74" s="4"/>
       <c r="C74" s="35"/>
       <c r="D74" s="8"/>
@@ -22951,7 +22967,7 @@
       <c r="F74" s="7"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B75" s="4"/>
       <c r="C75" s="35"/>
       <c r="D75" s="8"/>
@@ -22959,7 +22975,7 @@
       <c r="F75" s="7"/>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B76" s="4"/>
       <c r="C76" s="35"/>
       <c r="D76" s="8"/>
@@ -22967,7 +22983,7 @@
       <c r="F76" s="7"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B77" s="4"/>
       <c r="C77" s="35"/>
       <c r="D77" s="8"/>
